--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/15/seed4/result_data_RandomForest.xlsx
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.9301</v>
+        <v>-21.9564</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.16759999999997</v>
+        <v>-21.11509999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.95809999999999</v>
+        <v>-21.91689999999998</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.88209999999997</v>
+        <v>-20.75359999999998</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.65439999999999</v>
+        <v>-21.65899999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.65919999999999</v>
+        <v>-19.84939999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.89359999999998</v>
+        <v>-19.88829999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.8909</v>
+        <v>-21.9246</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8431</v>
+        <v>-21.806</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.0701</v>
+        <v>-21.03249999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
